--- a/medicine/Œil et vue/Chalazion/Chalazion.xlsx
+++ b/medicine/Œil et vue/Chalazion/Chalazion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chalazion (du grec ancien χάλαζα /ˈkʰa.la.za/, « chalaze », « grêlon »[1]), ou hordéole interne, est l'inflammation et l'enkystement d'une ou plusieurs glandes de Meibomius de la paupière. Le chalazion forme une petite boule de consistance ferme située sous la peau et pouvant être douloureuse. Il se forme lorsque le petit canal qui draine une glande de Meibomius se bouche.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chalazion (du grec ancien χάλαζα /ˈkʰa.la.za/, « chalaze », « grêlon »), ou hordéole interne, est l'inflammation et l'enkystement d'une ou plusieurs glandes de Meibomius de la paupière. Le chalazion forme une petite boule de consistance ferme située sous la peau et pouvant être douloureuse. Il se forme lorsque le petit canal qui draine une glande de Meibomius se bouche.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chalazion inclut une grosseur dans la paupière. Il peut causer une douleur mineure ou une irritation qui disparaît habituellement rapidement. Il peut dans certains cas s'infecter et s'accompagner d'un gonflement douloureux de la zone. La grosseur ne gêne généralement pas la vue mais, dans de rares cas, elle peut faire pression sur l'œil et modifier la vision[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chalazion inclut une grosseur dans la paupière. Il peut causer une douleur mineure ou une irritation qui disparaît habituellement rapidement. Il peut dans certains cas s'infecter et s'accompagner d'un gonflement douloureux de la zone. La grosseur ne gêne généralement pas la vue mais, dans de rares cas, elle peut faire pression sur l'œil et modifier la vision.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Chalazions chroniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut arriver que les chalazions deviennent chroniques. Ils peuvent être la conséquence d'une blépharite. On peut conseiller un nettoyage quotidien de la paupière et des cils avec un gel nettoyant et un graissage de l'œil avec du liquide graissant.
 Dans de très rares cas, il est possible que les chalazions chroniques masquent un carcinome.
@@ -578,7 +594,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si le chalazion persiste plus de 4 ou 5 jours, il faut prendre rendez-vous chez un ophtalmologue. Même si le chalazion est une pathologie bénigne et sans aucun caractère de gravité, cela peut être un motif de consultation en urgence car la gêne et la douleur peuvent être importantes. L’ophtalmologue va vérifier l’état des paupières et proposer un traitement avec une pommade à base d’antibiotique et cortisone pour essayer de réduire l’inflammation.
 Si la pommade ne suffit pas, l’ophtalmologue reverra le patient pour faire une petite incision au bistouri dans la glande (sous anesthésie locale) et la vider. Il n’y aura aucune cicatrice car l’incision est faite par la face interne de la paupière. Il suffit ensuite d’appliquer de nouveau la pommade quelques jours et le chalazion disparaît enfin.
@@ -610,10 +628,12 @@
           <t>Traitement à domicile possible</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout d'abord il est très important de traiter le chalazion le plus tôt possible, avant qu'il ne s'enkyste.
-La chaleur semble être la meilleure méthode pour guérir les chalazions[2]. Appliquer des compresses chaudes, pendant 15 à 20 minutes 4 à 6 fois par jour, pour permettre de liquéfier le contenu des glandes bloquées. Une petite pointe jaune de liquide cherchant à sortir devrait apparaître sur le bord de la paupière. Ensuite il faut masser la paupière afin de faire sortir ce liquide. En l'absence de compresse, il est possible de mettre un gant de toilette humide 30 secondes au micro-ondes et de l'appliquer sur la paupière pendant une minute, puis de masser.
+La chaleur semble être la meilleure méthode pour guérir les chalazions. Appliquer des compresses chaudes, pendant 15 à 20 minutes 4 à 6 fois par jour, pour permettre de liquéfier le contenu des glandes bloquées. Une petite pointe jaune de liquide cherchant à sortir devrait apparaître sur le bord de la paupière. Ensuite il faut masser la paupière afin de faire sortir ce liquide. En l'absence de compresse, il est possible de mettre un gant de toilette humide 30 secondes au micro-ondes et de l'appliquer sur la paupière pendant une minute, puis de masser.
 Pour éviter que le chalazion réapparaisse, il est important de changer régulièrement les draps du lit, ou au moins la taie d'oreiller, et de se laver les mains plusieurs fois par jour. Une hygiène rigoureuse et constante permet souvent de régler le problème. Il est possible pour prévenir les infections d'avoir une hygiène quotidienne particulière. Certains ophtalmologistes conseillent le nettoyage quotidien de la paupière et des cils matin et soir.
 </t>
         </is>
@@ -643,9 +663,11 @@
           <t>Prescription médicale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prescription classique du médecin comprend des pommades ou des collyres ophtalmiques[3],[4] à visée anti-inflammatoire. Aucune antibiothérapie n'est recommandée[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prescription classique du médecin comprend des pommades ou des collyres ophtalmiques, à visée anti-inflammatoire. Aucune antibiothérapie n'est recommandée.
 </t>
         </is>
       </c>
@@ -674,9 +696,11 @@
           <t>Intervention chirurgicale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les manipulations à domicile peuvent se révéler infructueuses, et l'ophtalmologiste peut décider d'inciser la paupière pour extraire la glande subissant l'inflammation[4],[6], dans un service ambulatoire.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les manipulations à domicile peuvent se révéler infructueuses, et l'ophtalmologiste peut décider d'inciser la paupière pour extraire la glande subissant l'inflammation dans un service ambulatoire.
 En effet, pris trop tard, le chalazion s'enkyste (voir kyste) et devient impossible à drainer manuellement.
 Pour des questions d'esthétique, cette incision a le plus souvent lieu à l'intérieur de la paupière.
 L'incision doit être effectuée dans le sens du canal obstrué, de façon que le chirurgien ne coupe pas d'autres canaux, ce qui aurait pour effet de créer d'autres chalazions.
